--- a/data/Activites_recommandations_VF.xlsx
+++ b/data/Activites_recommandations_VF.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://seinormigr-my.sharepoint.com/personal/sebastiengrall_seinormigr_onmicrosoft_com/Documents/SIG/Docs_4B2_VF ESTUAIRES/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\seino\Documents\Projets_Git\MigrEstuaires\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="38" documentId="8_{C67CC000-4A34-409E-9CFB-C9A9AA560561}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DDCB3A46-085D-48D1-A865-1A4EA939C66F}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{415F3455-414D-4E3A-85CB-34FBF18A9E66}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{1343C11A-C654-4812-ADC8-A2AFA5B73B05}"/>
   </bookViews>
@@ -792,20 +792,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -824,9 +820,6 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -914,32 +907,12 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{246C8004-7AEA-49AA-91B6-C47B4C6A3BE4}" name="Table_1" displayName="Table_1" ref="A2:X7" headerRowCount="0">
-  <tableColumns count="24">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{246C8004-7AEA-49AA-91B6-C47B4C6A3BE4}" name="Table_1" displayName="Table_1" ref="A2:D7" headerRowCount="0">
+  <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{89F5AC10-9123-4C62-81C7-52BF324FD09E}" name="Column1"/>
     <tableColumn id="2" xr3:uid="{6927D917-B375-47D2-8A27-D703595048A4}" name="Column2"/>
     <tableColumn id="3" xr3:uid="{E41705BD-EAB2-4B29-A5FB-EE79ECD15728}" name="Column3"/>
     <tableColumn id="5" xr3:uid="{34FD5170-606A-4A88-A145-A21357EE2C38}" name="Column5"/>
-    <tableColumn id="6" xr3:uid="{E860ABD7-63AF-4D33-A6EF-1B77AB393DA4}" name="Column6"/>
-    <tableColumn id="7" xr3:uid="{C5619AE3-3B5F-49A3-A883-69BD4BA14C07}" name="Column7"/>
-    <tableColumn id="8" xr3:uid="{C5025D48-3D4B-4435-A86D-704C87C196A1}" name="Column8"/>
-    <tableColumn id="9" xr3:uid="{0AFE282C-B84D-4BB9-A533-F0A941CCC52B}" name="Column9"/>
-    <tableColumn id="10" xr3:uid="{8034A353-2508-4A9D-ADB4-BF129E97FA9B}" name="Column10"/>
-    <tableColumn id="11" xr3:uid="{B7B588A9-9149-4624-AFC7-B328D3E94A12}" name="Column11"/>
-    <tableColumn id="12" xr3:uid="{26DD5A71-F89E-4759-BABA-502E0D063445}" name="Column12"/>
-    <tableColumn id="13" xr3:uid="{5C994F28-B69D-4E13-B17E-FFDD14F9A53F}" name="Column13"/>
-    <tableColumn id="14" xr3:uid="{0231D780-F795-46C2-9F2D-5EB5ED47E7E6}" name="Column14"/>
-    <tableColumn id="15" xr3:uid="{A3DB1DED-737F-460B-A6C8-225B089D2743}" name="Column15"/>
-    <tableColumn id="16" xr3:uid="{761B1910-EC63-4F79-AA99-022AB9885A53}" name="Column16"/>
-    <tableColumn id="17" xr3:uid="{1F889EEE-10F0-496C-8ABE-8C4421F8E914}" name="Column17"/>
-    <tableColumn id="18" xr3:uid="{AAC641E4-918B-478D-8021-2B089C3F4C1D}" name="Column18"/>
-    <tableColumn id="19" xr3:uid="{F646E0F9-A146-4B43-B67E-05EB79ED52E1}" name="Column19"/>
-    <tableColumn id="20" xr3:uid="{3E0C387C-A3F4-4DA9-A941-D44471D7F7D2}" name="Column20"/>
-    <tableColumn id="21" xr3:uid="{A0CF7E8E-3CCC-4088-BB98-8D2B94030B97}" name="Column21"/>
-    <tableColumn id="22" xr3:uid="{C0CB4B76-E4F2-4E31-812D-77E1B0E15DA5}" name="Column22"/>
-    <tableColumn id="23" xr3:uid="{BD45D8CE-CA1D-4E6D-BAD0-A572EF7DBC7B}" name="Column23"/>
-    <tableColumn id="24" xr3:uid="{E35B493E-ABE4-4B02-9608-9435444CDCBB}" name="Column24"/>
-    <tableColumn id="25" xr3:uid="{66995123-C264-4AE0-89C1-55697A1C66D2}" name="Column25"/>
   </tableColumns>
   <tableStyleInfo name="Feuil1-style" showFirstColumn="1" showLastColumn="1" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1242,30 +1215,30 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{068B8F9B-F4CC-475A-91D7-45BFF420867A}">
-  <dimension ref="A1:X994"/>
+  <dimension ref="A1:D994"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D4" sqref="D4"/>
+      <selection pane="bottomLeft" activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="30.28515625" customWidth="1"/>
-    <col min="3" max="3" width="28.7109375" customWidth="1"/>
-    <col min="4" max="4" width="82.85546875" customWidth="1"/>
-    <col min="5" max="24" width="10.7109375" customWidth="1"/>
+    <col min="1" max="1" width="30.28515625" customWidth="1"/>
+    <col min="2" max="2" width="41.42578125" customWidth="1"/>
+    <col min="3" max="3" width="40.140625" customWidth="1"/>
+    <col min="4" max="4" width="116.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="20" t="s">
+    <row r="1" spans="1:4" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="21"/>
-      <c r="C1" s="21"/>
-      <c r="D1" s="22"/>
+      <c r="B1" s="18"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="19"/>
     </row>
-    <row r="2" spans="1:24" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -1278,275 +1251,115 @@
       <c r="D2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
-      <c r="H2" s="3"/>
-      <c r="I2" s="3"/>
-      <c r="J2" s="3"/>
-      <c r="K2" s="3"/>
-      <c r="L2" s="3"/>
-      <c r="M2" s="3"/>
-      <c r="N2" s="3"/>
-      <c r="O2" s="3"/>
-      <c r="P2" s="3"/>
-      <c r="Q2" s="3"/>
-      <c r="R2" s="3"/>
-      <c r="S2" s="3"/>
-      <c r="T2" s="3"/>
-      <c r="U2" s="3"/>
-      <c r="V2" s="3"/>
-      <c r="W2" s="3"/>
-      <c r="X2" s="3"/>
     </row>
-    <row r="3" spans="1:24" ht="409.5" x14ac:dyDescent="0.25">
-      <c r="A3" s="17" t="s">
+    <row r="3" spans="1:4" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A3" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="B3" s="16" t="s">
+      <c r="B3" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="C3" s="16" t="s">
+      <c r="C3" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="D3" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="E3" s="6"/>
-      <c r="F3" s="6"/>
-      <c r="G3" s="6"/>
-      <c r="H3" s="6"/>
-      <c r="I3" s="6"/>
-      <c r="J3" s="6"/>
-      <c r="K3" s="6"/>
-      <c r="L3" s="6"/>
-      <c r="M3" s="6"/>
-      <c r="N3" s="6"/>
-      <c r="O3" s="6"/>
-      <c r="P3" s="6"/>
-      <c r="Q3" s="6"/>
-      <c r="R3" s="6"/>
-      <c r="S3" s="6"/>
-      <c r="T3" s="6"/>
-      <c r="U3" s="6"/>
-      <c r="V3" s="6"/>
-      <c r="W3" s="6"/>
-      <c r="X3" s="6"/>
     </row>
-    <row r="4" spans="1:24" ht="225" x14ac:dyDescent="0.25">
-      <c r="A4" s="17" t="s">
+    <row r="4" spans="1:4" ht="225" x14ac:dyDescent="0.25">
+      <c r="A4" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="B4" s="7" t="s">
+      <c r="B4" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="C4" s="7" t="s">
+      <c r="C4" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="D4" s="9" t="s">
+      <c r="D4" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="E4" s="6"/>
-      <c r="F4" s="6"/>
-      <c r="G4" s="6"/>
-      <c r="H4" s="6"/>
-      <c r="I4" s="6"/>
-      <c r="J4" s="6"/>
-      <c r="K4" s="6"/>
-      <c r="L4" s="6"/>
-      <c r="M4" s="6"/>
-      <c r="N4" s="6"/>
-      <c r="O4" s="6"/>
-      <c r="P4" s="6"/>
-      <c r="Q4" s="6"/>
-      <c r="R4" s="6"/>
-      <c r="S4" s="6"/>
-      <c r="T4" s="6"/>
-      <c r="U4" s="6"/>
-      <c r="V4" s="6"/>
-      <c r="W4" s="6"/>
-      <c r="X4" s="6"/>
     </row>
-    <row r="5" spans="1:24" ht="351" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="17" t="s">
+    <row r="5" spans="1:4" ht="351" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="B5" s="9" t="s">
+      <c r="B5" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="C5" s="9" t="s">
+      <c r="C5" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="D5" s="9" t="s">
+      <c r="D5" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="E5" s="6"/>
-      <c r="F5" s="6"/>
-      <c r="G5" s="6"/>
-      <c r="H5" s="6"/>
-      <c r="I5" s="6"/>
-      <c r="J5" s="6"/>
-      <c r="K5" s="6"/>
-      <c r="L5" s="6"/>
-      <c r="M5" s="6"/>
-      <c r="N5" s="6"/>
-      <c r="O5" s="6"/>
-      <c r="P5" s="6"/>
-      <c r="Q5" s="6"/>
-      <c r="R5" s="6"/>
-      <c r="S5" s="6"/>
-      <c r="T5" s="6"/>
-      <c r="U5" s="6"/>
-      <c r="V5" s="6"/>
-      <c r="W5" s="6"/>
-      <c r="X5" s="6"/>
     </row>
-    <row r="6" spans="1:24" ht="225" x14ac:dyDescent="0.25">
-      <c r="A6" s="4" t="s">
+    <row r="6" spans="1:4" ht="225" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="8" t="s">
+      <c r="B6" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="9" t="s">
+      <c r="C6" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="D6" s="5" t="s">
+      <c r="D6" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="E6" s="6"/>
-      <c r="F6" s="6"/>
-      <c r="G6" s="6"/>
-      <c r="H6" s="6"/>
-      <c r="I6" s="6"/>
-      <c r="J6" s="6"/>
-      <c r="K6" s="6"/>
-      <c r="L6" s="6"/>
-      <c r="M6" s="6"/>
-      <c r="N6" s="6"/>
-      <c r="O6" s="6"/>
-      <c r="P6" s="6"/>
-      <c r="Q6" s="6"/>
-      <c r="R6" s="6"/>
-      <c r="S6" s="6"/>
-      <c r="T6" s="6"/>
-      <c r="U6" s="6"/>
-      <c r="V6" s="6"/>
-      <c r="W6" s="6"/>
-      <c r="X6" s="6"/>
     </row>
-    <row r="7" spans="1:24" ht="270.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="18" t="s">
+    <row r="7" spans="1:4" ht="270.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="B7" s="10" t="s">
+      <c r="B7" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="10" t="s">
+      <c r="C7" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="D7" s="19" t="s">
+      <c r="D7" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="E7" s="6"/>
-      <c r="F7" s="6"/>
-      <c r="G7" s="6"/>
-      <c r="H7" s="6"/>
-      <c r="I7" s="6"/>
-      <c r="J7" s="6"/>
-      <c r="K7" s="6"/>
-      <c r="L7" s="6"/>
-      <c r="M7" s="6"/>
-      <c r="N7" s="6"/>
-      <c r="O7" s="6"/>
-      <c r="P7" s="6"/>
-      <c r="Q7" s="6"/>
-      <c r="R7" s="6"/>
-      <c r="S7" s="6"/>
-      <c r="T7" s="6"/>
-      <c r="U7" s="6"/>
-      <c r="V7" s="6"/>
-      <c r="W7" s="6"/>
-      <c r="X7" s="6"/>
     </row>
-    <row r="8" spans="1:24" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="23" t="s">
+    <row r="8" spans="1:4" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="24"/>
-      <c r="C8" s="24"/>
-      <c r="D8" s="25"/>
+      <c r="B8" s="21"/>
+      <c r="C8" s="21"/>
+      <c r="D8" s="22"/>
     </row>
-    <row r="9" spans="1:24" ht="360" x14ac:dyDescent="0.25">
-      <c r="A9" s="11" t="s">
+    <row r="9" spans="1:4" ht="360" x14ac:dyDescent="0.25">
+      <c r="A9" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="12" t="s">
+      <c r="B9" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="C9" s="12" t="s">
+      <c r="C9" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="D9" s="12" t="s">
+      <c r="D9" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="E9" s="13"/>
-      <c r="F9" s="13"/>
-      <c r="G9" s="13"/>
-      <c r="H9" s="13"/>
-      <c r="I9" s="13"/>
-      <c r="J9" s="13"/>
-      <c r="K9" s="13"/>
-      <c r="L9" s="13"/>
-      <c r="M9" s="13"/>
-      <c r="N9" s="13"/>
-      <c r="O9" s="13"/>
-      <c r="P9" s="13"/>
-      <c r="Q9" s="13"/>
-      <c r="R9" s="13"/>
-      <c r="S9" s="13"/>
-      <c r="T9" s="13"/>
-      <c r="U9" s="13"/>
-      <c r="V9" s="13"/>
-      <c r="W9" s="13"/>
-      <c r="X9" s="13"/>
     </row>
-    <row r="10" spans="1:24" ht="105" x14ac:dyDescent="0.25">
-      <c r="A10" s="14" t="s">
+    <row r="10" spans="1:4" ht="105" x14ac:dyDescent="0.25">
+      <c r="A10" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="B10" s="15" t="s">
+      <c r="B10" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="C10" s="15" t="s">
+      <c r="C10" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="D10" s="15" t="s">
+      <c r="D10" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="E10" s="6"/>
-      <c r="F10" s="6"/>
-      <c r="G10" s="6"/>
-      <c r="H10" s="6"/>
-      <c r="I10" s="6"/>
-      <c r="J10" s="6"/>
-      <c r="K10" s="6"/>
-      <c r="L10" s="6"/>
-      <c r="M10" s="6"/>
-      <c r="N10" s="6"/>
-      <c r="O10" s="6"/>
-      <c r="P10" s="6"/>
-      <c r="Q10" s="6"/>
-      <c r="R10" s="6"/>
-      <c r="S10" s="6"/>
-      <c r="T10" s="6"/>
-      <c r="U10" s="6"/>
-      <c r="V10" s="6"/>
-      <c r="W10" s="6"/>
-      <c r="X10" s="6"/>
     </row>
-    <row r="15" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="16" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="15" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="16" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2539,12 +2352,14 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="21708ab5-cf53-45fd-a9c9-9fc454a05e51">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="3570afc0-bc28-458b-8a69-b31bcbde79c2" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2755,20 +2570,21 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="21708ab5-cf53-45fd-a9c9-9fc454a05e51">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="3570afc0-bc28-458b-8a69-b31bcbde79c2" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1898F22D-F541-45B6-B896-2C4C4767C915}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4B409CC8-8654-4AA7-AEBA-58FC5800D9A5}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="21708ab5-cf53-45fd-a9c9-9fc454a05e51"/>
+    <ds:schemaRef ds:uri="3570afc0-bc28-458b-8a69-b31bcbde79c2"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -2793,12 +2609,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4B409CC8-8654-4AA7-AEBA-58FC5800D9A5}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1898F22D-F541-45B6-B896-2C4C4767C915}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="21708ab5-cf53-45fd-a9c9-9fc454a05e51"/>
-    <ds:schemaRef ds:uri="3570afc0-bc28-458b-8a69-b31bcbde79c2"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>